--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35781253180229539</v>
+        <v>0.35746311125172947</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32767881234817547</v>
+        <v>0.32751767128942721</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0039043834070032627</v>
+        <v>-0.0038768269880811042</v>
       </c>
       <c r="E3" s="0">
-        <v>3.460365916912161e-05</v>
+        <v>3.274908276443072e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00075905673681440347</v>
+        <v>-0.00073712727824824657</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00060767269865677617</v>
+        <v>0.00060816990627675122</v>
       </c>
       <c r="H3" s="0">
-        <v>-4.4077333761783868e-05</v>
+        <v>-4.3050964680679132e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.001201032895824403</v>
+        <v>-0.0012041227360983437</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0023903448445510844</v>
+        <v>0.0023903456433392312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.3073712548281648</v>
+        <v>0.30633046272307024</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0010495775538832408</v>
+        <v>-0.001366447076493017</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>6.5511682752829835e-05</v>
+        <v>6.5381887979628294e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>2.0596198027666534e-05</v>
+        <v>2.0639244225066247e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00010457480228156999</v>
+        <v>0.00010437213371903527</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0017126831919066982</v>
+        <v>-0.0017103684435274048</v>
       </c>
       <c r="J4" s="0">
-        <v>-2.0123788255336194e-05</v>
+        <v>-2.1244667942717489e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00032420093405899353</v>
+        <v>0.00032420098526608765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30141698084461443</v>
+        <v>0.3016693565432873</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0050700354503126167</v>
+        <v>0.0055042597307283217</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0060894079580167629</v>
+        <v>-0.0061073149052911025</v>
       </c>
       <c r="E5" s="0">
-        <v>-8.3221093933467905e-06</v>
+        <v>-6.5395167927591801e-06</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00058937835910034407</v>
+        <v>-0.0005995352634100171</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00149713003930105</v>
+        <v>-0.0014981345521955592</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.950753378121727e-05</v>
+        <v>-6.0000961474387541e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00039827598837197543</v>
+        <v>-0.00039785877339510752</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00095698158898765984</v>
+        <v>0.00095697625782176221</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.34916835757611064</v>
+        <v>0.34911972882675274</v>
       </c>
       <c r="C6" s="0">
-        <v>0.027247539242538931</v>
+        <v>0.027155041000261303</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00017363017202535173</v>
+        <v>-0.00017364690473465342</v>
       </c>
       <c r="F6" s="0">
-        <v>-3.8952912948329838e-05</v>
+        <v>-3.8744569598575223e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.6346447953513615e-05</v>
+        <v>-7.6718072856562776e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0028027855384029905</v>
+        <v>-0.0028121470255695856</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00066793962467448509</v>
+        <v>-0.00066794323263058564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.34358218150067604</v>
+        <v>0.34349653488797649</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0020894875930677682</v>
+        <v>-0.0021321571562589649</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00039828947068019645</v>
+        <v>-0.00039249942726090606</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0020056411529671427</v>
+        <v>-0.0020097794672152285</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0010463788038141142</v>
+        <v>0.0010487169578024236</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00018756508212356581</v>
+        <v>0.00018711145773946851</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0024255020112912695</v>
+        <v>0.0024255034167746659</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.17822399550601245</v>
+        <v>0.17884414612475569</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.042885823920489695</v>
+        <v>-0.042658447328827759</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.411475799599906e-05</v>
+        <v>6.4147134629622088e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00049892552134122138</v>
+        <v>-0.00049887264550315486</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>4.3044420372630175e-05</v>
+        <v>4.3057723495781661e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0016080430072545598</v>
+        <v>0.0016109323229177249</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-5.4959040698077111e-05</v>
+        <v>-5.495409465328116e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.2085200048764782</v>
+        <v>0.20918921556163528</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0015627128284880871</v>
+        <v>0.0015911595810978302</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0028184199725168196</v>
+        <v>-0.0028267740002714372</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.006855928322089447</v>
+        <v>-0.006863063338547238</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00093996489117055266</v>
+        <v>0.00093377506361669402</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00018073074835938232</v>
+        <v>-0.00017961081608560976</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00043392151508049836</v>
+        <v>-0.00043356726818421869</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00035531594006338318</v>
+        <v>0.00035531507928149297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.42857571552994134</v>
+        <v>0.42978874870022599</v>
       </c>
       <c r="C10" s="0">
-        <v>0.075359551081922688</v>
+        <v>0.075407690260319959</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>4.6550136526923223e-05</v>
+        <v>4.6545501517275485e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00043108227532145899</v>
+        <v>-0.0004305793641990907</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>3.3176373105534977e-06</v>
+        <v>3.3079128631505172e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00055815869638281405</v>
+        <v>-0.00055178846142171366</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0021975045205805941</v>
+        <v>-0.0022001050535813906</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00082649302302817418</v>
+        <v>0.00082647222604459447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.334726727750015</v>
+        <v>0.3355115014665242</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.011690376684900174</v>
+        <v>-0.011661268035431337</v>
       </c>
       <c r="E11" s="0">
-        <v>0.001595403642835733</v>
+        <v>0.001597754961947659</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0022416051144807793</v>
+        <v>0.0022075682020081732</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0018168006011932999</v>
+        <v>0.0018212067562167022</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00027019860976547496</v>
+        <v>0.00026856595862815674</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0040852444446322555</v>
+        <v>-0.0041005900969633196</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.010170410895209869</v>
+        <v>0.010170409674632397</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.3307987144539396</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.039247296765689596</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00012784888326927176</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.0774763087169364e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>4.1685581051429243e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.00013191129955023961</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0031650590149974733</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35746311125172947</v>
+        <v>0.35830178026200421</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32751767128942721</v>
+        <v>0.32790264215491616</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0038768269880811042</v>
+        <v>-0.0039202621215877285</v>
       </c>
       <c r="E3" s="0">
-        <v>3.274908276443072e-05</v>
+        <v>3.3625628375594421e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00073712727824824657</v>
+        <v>-0.00075343361552011943</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00060816990627675122</v>
+        <v>0.00060985979369176024</v>
       </c>
       <c r="H3" s="0">
-        <v>-4.3050964680679132e-05</v>
+        <v>-4.3881181568822703e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0012041227360983437</v>
+        <v>-0.001208174097399812</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0023903456433392312</v>
+        <v>0.0023903515542217924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.30633046272307024</v>
+        <v>0.30708526060350383</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.001366447076493017</v>
+        <v>-0.0011717257731858844</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>6.5381887979628294e-05</v>
+        <v>6.5414540199443955e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>2.0639244225066247e-05</v>
+        <v>1.953561536821103e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00010437213371903527</v>
+        <v>0.00010282246853587603</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0017103684435274048</v>
+        <v>-0.0017102891578087477</v>
       </c>
       <c r="J4" s="0">
-        <v>-2.1244667942717489e-05</v>
+        <v>-2.2903105623683689e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00032420098526608765</v>
+        <v>0.00032416907294524622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.3016693565432873</v>
+        <v>0.30076596364446667</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0055042597307283217</v>
+        <v>0.005095931471150731</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0061073149052911025</v>
+        <v>-0.0060964113347426307</v>
       </c>
       <c r="E5" s="0">
-        <v>-6.5395167927591801e-06</v>
+        <v>-1.0204632662852458e-05</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0005995352634100171</v>
+        <v>-0.00059114990733835139</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0014981345521955592</v>
+        <v>-0.00150561041043905</v>
       </c>
       <c r="H5" s="0">
-        <v>-6.0000961474387541e-05</v>
+        <v>-5.9874036425971908e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00039785877339510752</v>
+        <v>-0.00039741526169204382</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00095697625782176221</v>
+        <v>0.00095699392706299902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.34911972882675274</v>
+        <v>0.34927152866737127</v>
       </c>
       <c r="C6" s="0">
-        <v>0.027155041000261303</v>
+        <v>0.02752424557709621</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00017364690473465342</v>
+        <v>-0.00017366245829435068</v>
       </c>
       <c r="F6" s="0">
-        <v>-3.8744569598575223e-05</v>
+        <v>-3.8468976869387354e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.6718072856562776e-05</v>
+        <v>-7.6566613145417331e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0028121470255695856</v>
+        <v>-0.0028117975017837534</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00066794323263058564</v>
+        <v>-0.00066795117666124115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.34349653488797649</v>
+        <v>0.34385331441698325</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0021321571562589649</v>
+        <v>-0.0021395675534172098</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00039249942726090606</v>
+        <v>-0.00038221609465954371</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0020097794672152285</v>
+        <v>-0.0019963867115049493</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0010487169578024236</v>
+        <v>0.0010528829893341226</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00018711145773946851</v>
+        <v>0.00018682039708703098</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0024255034167746659</v>
+        <v>0.0024255009520816051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.17884414612475569</v>
+        <v>0.1783130091493533</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.042658447328827759</v>
+        <v>-0.043269622964683903</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.4147134629622088e-05</v>
+        <v>6.4255557791257804e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00049887264550315486</v>
+        <v>-0.00049878059875561854</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>4.3057723495781661e-05</v>
+        <v>4.3209690594417778e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0016109323229177249</v>
+        <v>0.0016151934831281716</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-5.495409465328116e-05</v>
+        <v>-5.496520397502147e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.20918921556163528</v>
+        <v>0.20832118422268192</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0015911595810978302</v>
+        <v>0.0015555869827879414</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0028267740002714372</v>
+        <v>-0.0028367527057922052</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.006863063338547238</v>
+        <v>-0.0068680117143567988</v>
       </c>
       <c r="G9" s="0">
-        <v>0.00093377506361669402</v>
+        <v>0.00094084007995847341</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00017961081608560976</v>
+        <v>-0.00017889598437088053</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00043356726818421869</v>
+        <v>-0.00043285283280364214</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.00035531507928149297</v>
+        <v>0.00035532542230509723</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.42978874870022599</v>
+        <v>0.43062025341240973</v>
       </c>
       <c r="C10" s="0">
-        <v>0.075407690260319959</v>
+        <v>0.075896500443195875</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>4.6545501517275485e-05</v>
+        <v>4.6350031663713076e-05</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0004305793641990907</v>
+        <v>-0.00043456503472204857</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>3.3079128631505172e-06</v>
+        <v>3.2295229253044607e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-0.00055178846142171366</v>
+        <v>-0.00055814909997921455</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022001050535813906</v>
+        <v>-0.0021619445003756292</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00082647222604459447</v>
+        <v>0.00082647152100459587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.3355115014665242</v>
+        <v>0.33481786838354421</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.011661268035431337</v>
+        <v>-0.011926294104056146</v>
       </c>
       <c r="E11" s="0">
-        <v>0.001597754961947659</v>
+        <v>0.0015993350521752952</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0022075682020081732</v>
+        <v>0.0021386816116380717</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0018212067562167022</v>
+        <v>0.0018324054754587367</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00026856595862815674</v>
+        <v>0.00026521597749053558</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0041005900969633196</v>
+        <v>-0.0041193970632694777</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.010170409674632397</v>
+        <v>0.01017042476452179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.3307987144539396</v>
+        <v>0.35271902302891939</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.039247296765689596</v>
+        <v>-0.050597716514620451</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00012784888326927176</v>
+        <v>0.00013557667729808935</v>
       </c>
       <c r="F12" s="0">
-        <v>1.0774763087169364e-05</v>
+        <v>0.0027820585188043849</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>4.1685581051429243e-06</v>
+        <v>0.00084481641280665059</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.00013191129955023961</v>
+        <v>0.0053784841718134283</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0031650590149974733</v>
+        <v>-0.0033751780150514943</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.26465240436578313</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.052356990824732053</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0016334804706389205</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.0068592205666428074</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.0011512650428619597</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00060006611638424492</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00034879275488874679</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.054828720607230708</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.19110912550197087</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.15266691139261029</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>2.444744241634468e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00038064447104764725</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00020273803854097306</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.02118515083094246</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.3120093660223819e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr4_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.35830178026200421</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.32790264215491616</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.30708526060350383</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.30076596364446667</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.34927152866737127</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.34385331441698325</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.1783130091493533</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.20832118422268192</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.43062025341240973</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.33481786838354421</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.35271902302891939</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.26465240436578313</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.19110912550197087</v>
+        <v>0.23389594424171922</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.15266691139261029</v>
+        <v>-0.12919254989108261</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>2.444744241634468e-05</v>
+        <v>8.3728655532316159e-06</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00038064447104764725</v>
+        <v>-1.8706183607054209e-06</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00020273803854097306</v>
+        <v>-0.0019248853333632037</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.02118515083094246</v>
+        <v>-0.0049576458491938542</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.3120093660223819e-05</v>
+        <v>-0.0026147336135254329</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.28286424493727352</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.094415230151609658</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0017545674784286952</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0018886951712645548</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.010840836604397133</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.031855731374713703</v>
       </c>
     </row>
   </sheetData>
